--- a/PublicationCounts/ScopusAffiliationCounts.xlsx
+++ b/PublicationCounts/ScopusAffiliationCounts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="11440" yWindow="2300" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>y uniq eids</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>Affil Cnt Updates</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
 </sst>
 </file>
@@ -118,7 +127,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -168,13 +177,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -199,6 +215,9 @@
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -223,6 +242,9 @@
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -555,10 +577,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2338,23 +2360,23 @@
         <v>41640</v>
       </c>
       <c r="B38">
-        <f t="shared" ref="B38:B68" si="10">L38</f>
+        <f t="shared" ref="B38:B92" si="10">L38</f>
         <v>8489508</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38:C68" si="11">M38</f>
+        <f t="shared" ref="C38:C92" si="11">M38</f>
         <v>0</v>
       </c>
       <c r="D38">
-        <f t="shared" ref="D38:D68" si="12">I38</f>
+        <f t="shared" ref="D38:D92" si="12">I38</f>
         <v>618</v>
       </c>
       <c r="E38">
-        <f t="shared" ref="E38:E68" si="13">N38-M38</f>
+        <f t="shared" ref="E38:E92" si="13">N38-M38</f>
         <v>30424</v>
       </c>
       <c r="F38">
-        <f t="shared" ref="F38:F68" si="14">O38-M38</f>
+        <f t="shared" ref="F38:F92" si="14">O38-M38</f>
         <v>2531</v>
       </c>
       <c r="H38">
@@ -3123,23 +3145,47 @@
       </c>
       <c r="B54">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>8506166</v>
       </c>
       <c r="C54">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D54">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E54">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9339</v>
       </c>
       <c r="F54">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1977</v>
+      </c>
+      <c r="H54">
+        <v>8506165</v>
+      </c>
+      <c r="I54">
+        <v>51</v>
+      </c>
+      <c r="J54">
+        <v>9390</v>
+      </c>
+      <c r="K54">
+        <v>2028</v>
+      </c>
+      <c r="L54">
+        <v>8506166</v>
+      </c>
+      <c r="M54">
+        <v>52</v>
+      </c>
+      <c r="N54">
+        <v>9391</v>
+      </c>
+      <c r="O54">
+        <v>2029</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3148,23 +3194,47 @@
       </c>
       <c r="B55">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>8506138</v>
       </c>
       <c r="C55">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D55">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="E55">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>14062</v>
       </c>
       <c r="F55">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>4372</v>
+      </c>
+      <c r="H55">
+        <v>8506166</v>
+      </c>
+      <c r="I55">
+        <v>118</v>
+      </c>
+      <c r="J55">
+        <v>14180</v>
+      </c>
+      <c r="K55">
+        <v>4490</v>
+      </c>
+      <c r="L55">
+        <v>8506138</v>
+      </c>
+      <c r="M55">
+        <v>90</v>
+      </c>
+      <c r="N55">
+        <v>14152</v>
+      </c>
+      <c r="O55">
+        <v>4462</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3173,23 +3243,47 @@
       </c>
       <c r="B56">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>8508109</v>
       </c>
       <c r="C56">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1987</v>
       </c>
       <c r="D56">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E56">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>40266</v>
       </c>
       <c r="F56">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>9408</v>
+      </c>
+      <c r="H56">
+        <v>8506138</v>
+      </c>
+      <c r="I56">
+        <v>16</v>
+      </c>
+      <c r="J56">
+        <v>40282</v>
+      </c>
+      <c r="K56">
+        <v>9424</v>
+      </c>
+      <c r="L56">
+        <v>8508109</v>
+      </c>
+      <c r="M56">
+        <v>1987</v>
+      </c>
+      <c r="N56">
+        <v>42253</v>
+      </c>
+      <c r="O56">
+        <v>11395</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3198,23 +3292,47 @@
       </c>
       <c r="B57">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>8509056</v>
       </c>
       <c r="C57">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1354</v>
       </c>
       <c r="D57">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="E57">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>11207</v>
       </c>
       <c r="F57">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>6506</v>
+      </c>
+      <c r="H57">
+        <v>8508109</v>
+      </c>
+      <c r="I57">
+        <v>407</v>
+      </c>
+      <c r="J57">
+        <v>11614</v>
+      </c>
+      <c r="K57">
+        <v>6913</v>
+      </c>
+      <c r="L57">
+        <v>8509056</v>
+      </c>
+      <c r="M57">
+        <v>1354</v>
+      </c>
+      <c r="N57">
+        <v>12561</v>
+      </c>
+      <c r="O57">
+        <v>7860</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3223,23 +3341,47 @@
       </c>
       <c r="B58">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>8509080</v>
       </c>
       <c r="C58">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="D58">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="E58">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>21707</v>
       </c>
       <c r="F58">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2537</v>
+      </c>
+      <c r="H58">
+        <v>8509056</v>
+      </c>
+      <c r="I58">
+        <v>206</v>
+      </c>
+      <c r="J58">
+        <v>21913</v>
+      </c>
+      <c r="K58">
+        <v>2743</v>
+      </c>
+      <c r="L58">
+        <v>8509080</v>
+      </c>
+      <c r="M58">
+        <v>230</v>
+      </c>
+      <c r="N58">
+        <v>21937</v>
+      </c>
+      <c r="O58">
+        <v>2767</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3248,23 +3390,47 @@
       </c>
       <c r="B59">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>8511957</v>
       </c>
       <c r="C59">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2883</v>
       </c>
       <c r="D59">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E59">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>23631</v>
       </c>
       <c r="F59">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>9389</v>
+      </c>
+      <c r="H59">
+        <v>8509080</v>
+      </c>
+      <c r="I59">
+        <v>6</v>
+      </c>
+      <c r="J59">
+        <v>23637</v>
+      </c>
+      <c r="K59">
+        <v>9395</v>
+      </c>
+      <c r="L59">
+        <v>8511957</v>
+      </c>
+      <c r="M59">
+        <v>2883</v>
+      </c>
+      <c r="N59">
+        <v>26514</v>
+      </c>
+      <c r="O59">
+        <v>12272</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3273,23 +3439,47 @@
       </c>
       <c r="B60">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>8512020</v>
       </c>
       <c r="C60">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>369</v>
       </c>
       <c r="D60">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="E60">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>53936</v>
       </c>
       <c r="F60">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3790</v>
+      </c>
+      <c r="H60">
+        <v>8511957</v>
+      </c>
+      <c r="I60">
+        <v>306</v>
+      </c>
+      <c r="J60">
+        <v>54242</v>
+      </c>
+      <c r="K60">
+        <v>4096</v>
+      </c>
+      <c r="L60">
+        <v>8512020</v>
+      </c>
+      <c r="M60">
+        <v>369</v>
+      </c>
+      <c r="N60">
+        <v>54305</v>
+      </c>
+      <c r="O60">
+        <v>4159</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3298,23 +3488,47 @@
       </c>
       <c r="B61">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>8512305</v>
       </c>
       <c r="C61">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>534</v>
       </c>
       <c r="D61">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="E61">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>22046</v>
       </c>
       <c r="F61">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3171</v>
+      </c>
+      <c r="H61">
+        <v>8512020</v>
+      </c>
+      <c r="I61">
+        <v>249</v>
+      </c>
+      <c r="J61">
+        <v>22295</v>
+      </c>
+      <c r="K61">
+        <v>3420</v>
+      </c>
+      <c r="L61">
+        <v>8512305</v>
+      </c>
+      <c r="M61">
+        <v>534</v>
+      </c>
+      <c r="N61">
+        <v>22580</v>
+      </c>
+      <c r="O61">
+        <v>3705</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3323,23 +3537,47 @@
       </c>
       <c r="B62">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>8516878</v>
       </c>
       <c r="C62">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4606</v>
       </c>
       <c r="D62">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E62">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>57011</v>
       </c>
       <c r="F62">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>14265</v>
+      </c>
+      <c r="H62">
+        <v>8512305</v>
+      </c>
+      <c r="I62">
+        <v>33</v>
+      </c>
+      <c r="J62">
+        <v>57044</v>
+      </c>
+      <c r="K62">
+        <v>14298</v>
+      </c>
+      <c r="L62">
+        <v>8516878</v>
+      </c>
+      <c r="M62">
+        <v>4606</v>
+      </c>
+      <c r="N62">
+        <v>61617</v>
+      </c>
+      <c r="O62">
+        <v>18871</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3348,23 +3586,47 @@
       </c>
       <c r="B63">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>8518775</v>
       </c>
       <c r="C63">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2849</v>
       </c>
       <c r="D63">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>952</v>
       </c>
       <c r="E63">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>43263</v>
       </c>
       <c r="F63">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>11740</v>
+      </c>
+      <c r="H63">
+        <v>8516878</v>
+      </c>
+      <c r="I63">
+        <v>952</v>
+      </c>
+      <c r="J63">
+        <v>44215</v>
+      </c>
+      <c r="K63">
+        <v>12692</v>
+      </c>
+      <c r="L63">
+        <v>8518775</v>
+      </c>
+      <c r="M63">
+        <v>2849</v>
+      </c>
+      <c r="N63">
+        <v>46112</v>
+      </c>
+      <c r="O63">
+        <v>14589</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3373,82 +3635,154 @@
       </c>
       <c r="B64">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>8518779</v>
       </c>
       <c r="C64">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="D64">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E64">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>22145</v>
       </c>
       <c r="F64">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>2659</v>
+      </c>
+      <c r="H64">
+        <v>8518775</v>
+      </c>
+      <c r="I64">
+        <v>180</v>
+      </c>
+      <c r="J64">
+        <v>22325</v>
+      </c>
+      <c r="K64">
+        <v>2839</v>
+      </c>
+      <c r="L64">
+        <v>8518779</v>
+      </c>
+      <c r="M64">
+        <v>184</v>
+      </c>
+      <c r="N64">
+        <v>22329</v>
+      </c>
+      <c r="O64">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="2">
         <v>41667</v>
       </c>
       <c r="B65">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>8520503</v>
       </c>
       <c r="C65">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1891</v>
       </c>
       <c r="D65">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="E65">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>28903</v>
       </c>
       <c r="F65">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>7843</v>
+      </c>
+      <c r="H65">
+        <v>8518779</v>
+      </c>
+      <c r="I65">
+        <v>167</v>
+      </c>
+      <c r="J65">
+        <v>29070</v>
+      </c>
+      <c r="K65">
+        <v>8010</v>
+      </c>
+      <c r="L65">
+        <v>8520503</v>
+      </c>
+      <c r="M65">
+        <v>1891</v>
+      </c>
+      <c r="N65">
+        <v>30794</v>
+      </c>
+      <c r="O65">
+        <v>9734</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="2">
         <v>41668</v>
       </c>
       <c r="B66">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>8522969</v>
       </c>
       <c r="C66">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2507</v>
       </c>
       <c r="D66">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E66">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>15040</v>
       </c>
       <c r="F66">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>8954</v>
+      </c>
+      <c r="H66">
+        <v>8520503</v>
+      </c>
+      <c r="I66">
+        <v>41</v>
+      </c>
+      <c r="J66">
+        <v>15081</v>
+      </c>
+      <c r="K66">
+        <v>8995</v>
+      </c>
+      <c r="L66">
+        <v>8522969</v>
+      </c>
+      <c r="M66">
+        <v>2507</v>
+      </c>
+      <c r="N66">
+        <v>17547</v>
+      </c>
+      <c r="O66">
+        <v>11461</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="2">
         <v>41669</v>
       </c>
       <c r="B67">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>8522969</v>
       </c>
       <c r="C67">
         <f t="shared" si="11"/>
@@ -3464,20 +3798,44 @@
       </c>
       <c r="F67">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>124</v>
+      </c>
+      <c r="H67">
+        <v>8522969</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>124</v>
+      </c>
+      <c r="L67">
+        <v>8522969</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" s="2">
         <v>41670</v>
       </c>
       <c r="B68">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>8525341</v>
       </c>
       <c r="C68">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2372</v>
       </c>
       <c r="D68">
         <f t="shared" si="12"/>
@@ -3485,11 +3843,1226 @@
       </c>
       <c r="E68">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>17254</v>
       </c>
       <c r="F68">
         <f t="shared" si="14"/>
         <v>0</v>
+      </c>
+      <c r="H68">
+        <v>8522969</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>17254</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>8525341</v>
+      </c>
+      <c r="M68">
+        <v>2372</v>
+      </c>
+      <c r="N68">
+        <v>19626</v>
+      </c>
+      <c r="O68">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="2">
+        <v>41671</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="10"/>
+        <v>8525341</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="14"/>
+        <v>8894</v>
+      </c>
+      <c r="H69">
+        <v>8525341</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>8894</v>
+      </c>
+      <c r="L69">
+        <v>8525341</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>8894</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="2">
+        <v>41672</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="10"/>
+        <v>8528173</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="11"/>
+        <v>2832</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="13"/>
+        <v>32916</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="14"/>
+        <v>9529</v>
+      </c>
+      <c r="H70">
+        <v>8525341</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>32916</v>
+      </c>
+      <c r="K70">
+        <v>9529</v>
+      </c>
+      <c r="L70">
+        <v>8528173</v>
+      </c>
+      <c r="M70">
+        <v>2832</v>
+      </c>
+      <c r="N70">
+        <v>35748</v>
+      </c>
+      <c r="O70">
+        <v>12361</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="2">
+        <v>41673</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="10"/>
+        <v>8530876</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="11"/>
+        <v>3101</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="12"/>
+        <v>398</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="13"/>
+        <v>55128</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="14"/>
+        <v>10134</v>
+      </c>
+      <c r="H71">
+        <v>8528173</v>
+      </c>
+      <c r="I71">
+        <v>398</v>
+      </c>
+      <c r="J71">
+        <v>55526</v>
+      </c>
+      <c r="K71">
+        <v>10532</v>
+      </c>
+      <c r="L71">
+        <v>8530876</v>
+      </c>
+      <c r="M71">
+        <v>3101</v>
+      </c>
+      <c r="N71">
+        <v>58229</v>
+      </c>
+      <c r="O71">
+        <v>13235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="2">
+        <v>41674</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="10"/>
+        <v>8532371</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="11"/>
+        <v>2270</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="12"/>
+        <v>775</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="13"/>
+        <v>55545</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="14"/>
+        <v>8937</v>
+      </c>
+      <c r="H72">
+        <v>8530876</v>
+      </c>
+      <c r="I72">
+        <v>775</v>
+      </c>
+      <c r="J72">
+        <v>56320</v>
+      </c>
+      <c r="K72">
+        <v>9712</v>
+      </c>
+      <c r="L72">
+        <v>8532371</v>
+      </c>
+      <c r="M72">
+        <v>2270</v>
+      </c>
+      <c r="N72">
+        <v>57815</v>
+      </c>
+      <c r="O72">
+        <v>11207</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="2">
+        <v>41675</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="10"/>
+        <v>8531717</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="12"/>
+        <v>672</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="13"/>
+        <v>206</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="14"/>
+        <v>7660</v>
+      </c>
+      <c r="H73">
+        <v>8532371</v>
+      </c>
+      <c r="I73">
+        <v>672</v>
+      </c>
+      <c r="J73">
+        <v>878</v>
+      </c>
+      <c r="K73">
+        <v>8332</v>
+      </c>
+      <c r="L73">
+        <v>8531717</v>
+      </c>
+      <c r="M73">
+        <v>18</v>
+      </c>
+      <c r="N73">
+        <v>224</v>
+      </c>
+      <c r="O73">
+        <v>7678</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="2">
+        <v>41676</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="10"/>
+        <v>8536064</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="11"/>
+        <v>4697</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="12"/>
+        <v>350</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="13"/>
+        <v>43619</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="14"/>
+        <v>8863</v>
+      </c>
+      <c r="H74">
+        <v>8531717</v>
+      </c>
+      <c r="I74">
+        <v>350</v>
+      </c>
+      <c r="J74">
+        <v>43969</v>
+      </c>
+      <c r="K74">
+        <v>9213</v>
+      </c>
+      <c r="L74">
+        <v>8536064</v>
+      </c>
+      <c r="M74">
+        <v>4697</v>
+      </c>
+      <c r="N74">
+        <v>48316</v>
+      </c>
+      <c r="O74">
+        <v>13560</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="2">
+        <v>41677</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="10"/>
+        <v>8535903</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="11"/>
+        <v>412</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="12"/>
+        <v>573</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="13"/>
+        <v>60133</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="14"/>
+        <v>12400</v>
+      </c>
+      <c r="H75">
+        <v>8536064</v>
+      </c>
+      <c r="I75">
+        <v>573</v>
+      </c>
+      <c r="J75">
+        <v>60706</v>
+      </c>
+      <c r="K75">
+        <v>12973</v>
+      </c>
+      <c r="L75">
+        <v>8535903</v>
+      </c>
+      <c r="M75">
+        <v>412</v>
+      </c>
+      <c r="N75">
+        <v>60545</v>
+      </c>
+      <c r="O75">
+        <v>12812</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="2">
+        <v>41678</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="10"/>
+        <v>8537914</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="11"/>
+        <v>2203</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="12"/>
+        <v>192</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="13"/>
+        <v>61841</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="14"/>
+        <v>10014</v>
+      </c>
+      <c r="H76">
+        <v>8535903</v>
+      </c>
+      <c r="I76">
+        <v>192</v>
+      </c>
+      <c r="J76">
+        <v>62033</v>
+      </c>
+      <c r="K76">
+        <v>10206</v>
+      </c>
+      <c r="L76">
+        <v>8537914</v>
+      </c>
+      <c r="M76">
+        <v>2203</v>
+      </c>
+      <c r="N76">
+        <v>64044</v>
+      </c>
+      <c r="O76">
+        <v>12217</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="2">
+        <v>41679</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="2">
+        <v>41680</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="2">
+        <v>41681</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="10"/>
+        <v>8544761</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="11"/>
+        <v>2381</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="12"/>
+        <v>418</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="13"/>
+        <v>50321</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="14"/>
+        <v>12249</v>
+      </c>
+      <c r="H79">
+        <v>8542798</v>
+      </c>
+      <c r="I79">
+        <v>418</v>
+      </c>
+      <c r="J79">
+        <v>50739</v>
+      </c>
+      <c r="K79">
+        <v>12667</v>
+      </c>
+      <c r="L79">
+        <v>8544761</v>
+      </c>
+      <c r="M79">
+        <v>2381</v>
+      </c>
+      <c r="N79">
+        <v>52702</v>
+      </c>
+      <c r="O79">
+        <v>14630</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="2">
+        <v>41682</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="10"/>
+        <v>8546109</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="11"/>
+        <v>1617</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="12"/>
+        <v>269</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="13"/>
+        <v>31893</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="14"/>
+        <v>8652</v>
+      </c>
+      <c r="H80">
+        <v>8544761</v>
+      </c>
+      <c r="I80">
+        <v>269</v>
+      </c>
+      <c r="J80">
+        <v>32162</v>
+      </c>
+      <c r="K80">
+        <v>8921</v>
+      </c>
+      <c r="L80">
+        <v>8546109</v>
+      </c>
+      <c r="M80">
+        <v>1617</v>
+      </c>
+      <c r="N80">
+        <v>33510</v>
+      </c>
+      <c r="O80">
+        <v>10269</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="2">
+        <v>41683</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="10"/>
+        <v>7992958</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="12"/>
+        <v>553151</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="14"/>
+        <v>3473</v>
+      </c>
+      <c r="H81">
+        <v>8546109</v>
+      </c>
+      <c r="I81">
+        <v>553151</v>
+      </c>
+      <c r="J81">
+        <v>553151</v>
+      </c>
+      <c r="K81">
+        <v>556624</v>
+      </c>
+      <c r="L81">
+        <v>7992958</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>3473</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="2">
+        <v>41684</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="10"/>
+        <v>7994152</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="11"/>
+        <v>4052</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="12"/>
+        <v>2858</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="13"/>
+        <v>41093</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="14"/>
+        <v>10737</v>
+      </c>
+      <c r="H82">
+        <v>7992958</v>
+      </c>
+      <c r="I82">
+        <v>2858</v>
+      </c>
+      <c r="J82">
+        <v>43951</v>
+      </c>
+      <c r="K82">
+        <v>13595</v>
+      </c>
+      <c r="L82">
+        <v>7994152</v>
+      </c>
+      <c r="M82">
+        <v>4052</v>
+      </c>
+      <c r="N82">
+        <v>45145</v>
+      </c>
+      <c r="O82">
+        <v>14789</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="2">
+        <v>41685</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="10"/>
+        <v>7997950</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="11"/>
+        <v>4088</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="12"/>
+        <v>290</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="13"/>
+        <v>30120</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="14"/>
+        <v>12684</v>
+      </c>
+      <c r="H83">
+        <v>7994152</v>
+      </c>
+      <c r="I83">
+        <v>290</v>
+      </c>
+      <c r="J83">
+        <v>30410</v>
+      </c>
+      <c r="K83">
+        <v>12974</v>
+      </c>
+      <c r="L83">
+        <v>7997950</v>
+      </c>
+      <c r="M83">
+        <v>4088</v>
+      </c>
+      <c r="N83">
+        <v>34208</v>
+      </c>
+      <c r="O83">
+        <v>16772</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="2">
+        <v>41686</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="10"/>
+        <v>8002212</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="11"/>
+        <v>4273</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="13"/>
+        <v>34453</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="14"/>
+        <v>12271</v>
+      </c>
+      <c r="H84">
+        <v>7997950</v>
+      </c>
+      <c r="I84">
+        <v>11</v>
+      </c>
+      <c r="J84">
+        <v>34464</v>
+      </c>
+      <c r="K84">
+        <v>12282</v>
+      </c>
+      <c r="L84">
+        <v>8002212</v>
+      </c>
+      <c r="M84">
+        <v>4273</v>
+      </c>
+      <c r="N84">
+        <v>38726</v>
+      </c>
+      <c r="O84">
+        <v>16544</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="2">
+        <v>41687</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="10"/>
+        <v>8005984</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="11"/>
+        <v>3772</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="13"/>
+        <v>26672</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="14"/>
+        <v>713</v>
+      </c>
+      <c r="H85">
+        <v>8002212</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>26672</v>
+      </c>
+      <c r="K85">
+        <v>713</v>
+      </c>
+      <c r="L85">
+        <v>8005984</v>
+      </c>
+      <c r="M85">
+        <v>3772</v>
+      </c>
+      <c r="N85">
+        <v>30444</v>
+      </c>
+      <c r="O85">
+        <v>4485</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="2">
+        <v>41688</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="10"/>
+        <v>8008938</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="11"/>
+        <v>2998</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="12"/>
+        <v>44</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="13"/>
+        <v>27101</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="14"/>
+        <v>12849</v>
+      </c>
+      <c r="H86">
+        <v>8005984</v>
+      </c>
+      <c r="I86">
+        <v>44</v>
+      </c>
+      <c r="J86">
+        <v>27145</v>
+      </c>
+      <c r="K86">
+        <v>12893</v>
+      </c>
+      <c r="L86">
+        <v>8008938</v>
+      </c>
+      <c r="M86">
+        <v>2998</v>
+      </c>
+      <c r="N86">
+        <v>30099</v>
+      </c>
+      <c r="O86">
+        <v>15847</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="2">
+        <v>41689</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="10"/>
+        <v>8008883</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="12"/>
+        <v>55</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="14"/>
+        <v>10857</v>
+      </c>
+      <c r="H87">
+        <v>8008938</v>
+      </c>
+      <c r="I87">
+        <v>55</v>
+      </c>
+      <c r="J87">
+        <v>55</v>
+      </c>
+      <c r="K87">
+        <v>10912</v>
+      </c>
+      <c r="L87">
+        <v>8008883</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>10857</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="2">
+        <v>41690</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="10"/>
+        <v>8015453</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="11"/>
+        <v>6582</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="13"/>
+        <v>48892</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="14"/>
+        <v>16411</v>
+      </c>
+      <c r="H88">
+        <v>8008883</v>
+      </c>
+      <c r="I88">
+        <v>12</v>
+      </c>
+      <c r="J88">
+        <v>48904</v>
+      </c>
+      <c r="K88">
+        <v>16423</v>
+      </c>
+      <c r="L88">
+        <v>8015453</v>
+      </c>
+      <c r="M88">
+        <v>6582</v>
+      </c>
+      <c r="N88">
+        <v>55474</v>
+      </c>
+      <c r="O88">
+        <v>22993</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="2">
+        <v>41691</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="10"/>
+        <v>8018872</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="11"/>
+        <v>4005</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="12"/>
+        <v>586</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="13"/>
+        <v>38003</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="14"/>
+        <v>13135</v>
+      </c>
+      <c r="H89">
+        <v>8015453</v>
+      </c>
+      <c r="I89">
+        <v>586</v>
+      </c>
+      <c r="J89">
+        <v>38589</v>
+      </c>
+      <c r="K89">
+        <v>13721</v>
+      </c>
+      <c r="L89">
+        <v>8018872</v>
+      </c>
+      <c r="M89">
+        <v>4005</v>
+      </c>
+      <c r="N89">
+        <v>42008</v>
+      </c>
+      <c r="O89">
+        <v>17140</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="2">
+        <v>41692</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="10"/>
+        <v>8021968</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="11"/>
+        <v>3096</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>8018872</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>8021968</v>
+      </c>
+      <c r="M90">
+        <v>3096</v>
+      </c>
+      <c r="N90">
+        <v>3096</v>
+      </c>
+      <c r="O90">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" s="2">
+        <v>41693</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="10"/>
+        <v>8021968</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>8021968</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>8021968</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="2">
+        <v>41694</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="10"/>
+        <v>8026808</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="11"/>
+        <v>6690</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="12"/>
+        <v>1850</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="13"/>
+        <v>140853</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="14"/>
+        <v>26068</v>
+      </c>
+      <c r="H92">
+        <v>8021968</v>
+      </c>
+      <c r="I92">
+        <v>1850</v>
+      </c>
+      <c r="J92">
+        <v>142703</v>
+      </c>
+      <c r="K92">
+        <v>27918</v>
+      </c>
+      <c r="L92">
+        <v>8026808</v>
+      </c>
+      <c r="M92">
+        <v>6690</v>
+      </c>
+      <c r="N92">
+        <v>147543</v>
+      </c>
+      <c r="O92">
+        <v>32758</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="3">
+        <f>AVERAGE(C3:C92)</f>
+        <v>2187.6</v>
+      </c>
+      <c r="D95" s="3">
+        <f t="shared" ref="D95:F95" si="15">AVERAGE(D3:D92)</f>
+        <v>6743.4222222222224</v>
+      </c>
+      <c r="E95" s="3">
+        <f t="shared" si="15"/>
+        <v>31924.18888888889</v>
+      </c>
+      <c r="F95" s="3">
+        <f t="shared" si="15"/>
+        <v>7870.9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96">
+        <f>MIN(C3:C92)</f>
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ref="D96:F96" si="16">MIN(D3:D92)</f>
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97">
+        <f>MAX(C3:C92)</f>
+        <v>8913</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ref="D97:F97" si="17">MAX(D3:D92)</f>
+        <v>553151</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="17"/>
+        <v>140853</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="17"/>
+        <v>26068</v>
       </c>
     </row>
   </sheetData>
